--- a/Tables/Table8_Real_Traits_Causals_height.xlsx
+++ b/Tables/Table8_Real_Traits_Causals_height.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951007E2-1422-4A43-8F26-459D18E3887D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAC7079-FDFB-4511-BE62-DBF95AC20477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,7 +403,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -496,16 +496,74 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>154</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>195</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>

--- a/Tables/Table8_Real_Traits_Causals_height.xlsx
+++ b/Tables/Table8_Real_Traits_Causals_height.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAC7079-FDFB-4511-BE62-DBF95AC20477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151F1AB2-07C1-434D-A31F-638CCF508554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="12">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>quantitative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bolt-lmm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,6 +65,14 @@
   </si>
   <si>
     <t>Bolt-lmm-inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>White</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +96,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +106,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,9 +128,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,7 +415,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -416,24 +428,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>606</v>
@@ -441,13 +453,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>796</v>
@@ -455,13 +467,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>194</v>
@@ -469,13 +481,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>154</v>
@@ -483,86 +495,86 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D9" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D10" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>195</v>
+      <c r="D11" s="2">
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -576,6 +588,107 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137790C4-D060-421F-848C-8C073653CF98}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Tables/Table8_Real_Traits_Causals_height.xlsx
+++ b/Tables/Table8_Real_Traits_Causals_height.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151F1AB2-07C1-434D-A31F-638CCF508554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAED658C-6C89-4FF6-B81C-88A516383D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -476,7 +476,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>194</v>
+        <v>782</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1">
-        <v>154</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>195</v>
+        <v>685</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="2">
-        <v>111</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -560,7 +560,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>80</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -574,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="2">
-        <v>98</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
